--- a/biology/Botanique/Eisenia_bicyclis/Eisenia_bicyclis.xlsx
+++ b/biology/Botanique/Eisenia_bicyclis/Eisenia_bicyclis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecklonia bicyclis, Eisenia bicyclis
 L'Aramé, ou Arame (荒布) Ecklonia bicyclis, est une espèce d'algues brunes de la famille des Lessoniaceae.
@@ -514,7 +526,9 @@
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Similaire à l'hijiki, ses filaments sont plats plutôt que ronds et on doit également s'assurer que les grains de sable et de coquillages ont été enlevés. Contrairement à l'hijiki, un trempage pré-cuisson court est suffisant. D'un brun jaunâtre lorsqu'il est frais, il devient noirâtre à la cuisson. L'aramé est plus tendre lorsqu'il est jeune ; sa texture est légèrement moins croustillante que celle de l'hijiki et sa saveur est plus douce et plus sucrée.
 On le sert comme légume d'accompagnement et peut être ajouté aux muffins, aux soupes, aux pilafs, ou d'autres. Il est souvent frit.
